--- a/Final_Project/Calibration_Round_3.xlsx
+++ b/Final_Project/Calibration_Round_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UC\2018-2019\1º Semestre\Sensores Inteligentes\SI_Repo_ESM\Final_Project\ENVIAR AO PROF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UC\2018-2019\1º Semestre\Sensores Inteligentes\SI_Repo_ESM\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A1C57D-15BE-410E-80FA-86A1FB7D819F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854CDA2-98F9-4183-8EEE-11BF12718106}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7560" xr2:uid="{4F2E7271-D480-4AAD-AFFE-CC0E7DE058FF}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="6">
   <si>
     <t>Light</t>
   </si>
@@ -523,15 +523,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,6 +557,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,10 +695,35 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.13190348365545224"/>
-                  <c:y val="0.35644696804848131"/>
+                  <c:x val="0.13379742304939155"/>
+                  <c:y val="0.36250069415264874"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="lt1">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>y = 253.17ln(x) - 52.857</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2487,7 +2512,7 @@
   <dimension ref="B1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,12 +2539,12 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -2537,16 +2562,16 @@
       <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2570,19 +2595,19 @@
         <f>ROUND(AVERAGE('350'!D:D),0)</f>
         <v>1056</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="21">
         <f>_xlfn.STDEV.P('350'!A:A)</f>
         <v>30.693656442662014</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="27">
         <f>_xlfn.STDEV.P('350'!B:B)</f>
         <v>38.823863214867551</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="27">
         <f>_xlfn.STDEV.P('350'!C:C)</f>
         <v>95.432495288529054</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="24">
         <f>_xlfn.STDEV.P('350'!D:D)</f>
         <v>90.830552753000944</v>
       </c>
@@ -2607,19 +2632,19 @@
         <f>ROUND(AVERAGE('1100'!D:D),0)</f>
         <v>1971</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="22">
         <f>_xlfn.STDEV.P('1100'!A:A)</f>
         <v>117.51472671927556</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="28">
         <f>_xlfn.STDEV.P('1100'!B:B)</f>
         <v>65.007350099259796</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="28">
         <f>_xlfn.STDEV.P('1100'!C:C)</f>
         <v>118.49504746062134</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="25">
         <f>_xlfn.STDEV.P('1100'!D:D)</f>
         <v>123.53897425301601</v>
       </c>
@@ -2644,19 +2669,19 @@
         <f>ROUND(AVERAGE('2700'!D:D),0)</f>
         <v>2738</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <f>_xlfn.STDEV.P('2700'!A:A)</f>
         <v>32.9175731688293</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="28">
         <f>_xlfn.STDEV.P('2700'!B:B)</f>
         <v>77.886508550225756</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="28">
         <f>_xlfn.STDEV.P('2700'!C:C)</f>
         <v>104.64843599013403</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="25">
         <f>_xlfn.STDEV.P('2700'!D:D)</f>
         <v>116.47991929156007</v>
       </c>
@@ -2681,19 +2706,19 @@
         <f>ROUND(AVERAGE('4700'!D:D),0)</f>
         <v>3191</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <f>_xlfn.STDEV.P('4700'!A:A)</f>
         <v>46.123462083795737</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="28">
         <f>_xlfn.STDEV.P('4700'!B:B)</f>
         <v>76.410335688796664</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="28">
         <f>_xlfn.STDEV.P('4700'!C:C)</f>
         <v>85.400412371141769</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="25">
         <f>_xlfn.STDEV.P('4700'!D:D)</f>
         <v>94.110137564633987</v>
       </c>
@@ -2718,19 +2743,19 @@
         <f>ROUND(AVERAGE('9670'!D:D),0)</f>
         <v>3624</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="23">
         <f>_xlfn.STDEV.P('9670'!A:A)</f>
         <v>62.80206339532004</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="29">
         <f>_xlfn.STDEV.P('9670'!B:B)</f>
         <v>61.437839696527952</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="29">
         <f>_xlfn.STDEV.P('9670'!C:C)</f>
         <v>56.067388859986465</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="26">
         <f>_xlfn.STDEV.P('9670'!D:D)</f>
         <v>57.341837526672023</v>
       </c>
